--- a/2022_designAnalysisScripts/2022-11-20_gblock/2023-1-11_bca.xlsx
+++ b/2022_designAnalysisScripts/2022-11-20_gblock/2023-1-11_bca.xlsx
@@ -600,7 +600,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -656,6 +656,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -787,6 +788,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -833,17 +835,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="57466045"/>
-        <c:axId val="58076666"/>
+        <c:axId val="14893475"/>
+        <c:axId val="37238120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57466045"/>
+        <c:axId val="14893475"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -865,12 +867,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58076666"/>
+        <c:crossAx val="37238120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58076666"/>
+        <c:axId val="37238120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,7 +887,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -907,7 +909,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57466045"/>
+        <c:crossAx val="14893475"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -927,7 +929,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -941,13 +943,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>290160</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>540720</xdr:colOff>
+      <xdr:colOff>540360</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -955,8 +957,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10401840" y="7925040"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="10408680" y="7925040"/>
+        <a:ext cx="5765040" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -976,11 +978,11 @@
   </sheetPr>
   <dimension ref="A2:O54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E57" activeCellId="0" sqref="E57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.85"/>
@@ -1574,7 +1576,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="6" t="s">
         <v>64</v>
       </c>
